--- a/biology/Zoologie/Alectis_indica/Alectis_indica.xlsx
+++ b/biology/Zoologie/Alectis_indica/Alectis_indica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alectis indica, communément appelé Cordonnier plume[5], est une espèce de poissons marins de la famille des carangues.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alectis indica, communément appelé Cordonnier plume, est une espèce de poissons marins de la famille des carangues.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alectis indica se rencontre sur un vaste territoire s'étendant des côtes est de l'Afrique jusqu'à la mer du Japon et à l'Australie en passant par la mer Rouge[5]. Cette espèce vit jusqu'à une profondeur comprise entre 20 et 100 m[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alectis indica se rencontre sur un vaste territoire s'étendant des côtes est de l'Afrique jusqu'à la mer du Japon et à l'Australie en passant par la mer Rouge. Cette espèce vit jusqu'à une profondeur comprise entre 20 et 100 m.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale de Alectis indica est de 165 cm pour un poids maximal de 25 kg[5], toutefois sa taille habituelle est d'environ 100 cm[5]. Cette espèce se nourrit de poissons, de calmars et de crustacés.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale de Alectis indica est de 165 cm pour un poids maximal de 25 kg, toutefois sa taille habituelle est d'environ 100 cm. Cette espèce se nourrit de poissons, de calmars et de crustacés.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cette espèces portent de très nombreux noms vernaculaires dont :
 en français, Carangue à plumes (Seychelles), Carangue échevelée (Polynésie française), Carangue folle (Réunion), Cordonnier plume (Djibouti et global) ;
@@ -605,9 +623,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Rüppell, 1828-30 : Atlas zu der Reise im nördlichen Afrika. Frankfurt am Main (Heinrich Ludwig Brönner), p. 1-141[6] (texte intégral).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Rüppell, 1828-30 : Atlas zu der Reise im nördlichen Afrika. Frankfurt am Main (Heinrich Ludwig Brönner), p. 1-141 (texte intégral).</t>
         </is>
       </c>
     </row>
